--- a/dags/functions/DAG017/assets/RerporteVerificacion.xlsx
+++ b/dags/functions/DAG017/assets/RerporteVerificacion.xlsx
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="C5" s="8" t="n">
-        <v>45427.59073804312</v>
+        <v>45428.70275119752</v>
       </c>
       <c r="D5" s="2" t="n"/>
       <c r="E5" s="2" t="n"/>
@@ -622,7 +622,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>000022-000084-106746</t>
+          <t>000022-000084-106747</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -632,12 +632,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>100012</t>
+          <t>100013</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>VARGAS CHEVALIER JARABE DE GOMA 750ML</t>
+          <t>VARGAS CHEVALIER JARABE DE GRANADINA 750ML</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>000022-000084-106748</t>
+          <t>000022-000084-106747</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -672,12 +672,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100013</t>
+          <t>100012</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>VARGAS CHEVALIER JARABE DE GRANADINA 750ML</t>
+          <t>VARGAS CHEVALIER JARABE DE GOMA 750ML</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -702,27 +702,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>000022-000084-106748</t>
+          <t>000022-000085-93544</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>000022-000006974</t>
+          <t>000022-000006955</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100012</t>
+          <t>100164</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>VARGAS CHEVALIER JARABE DE GOMA 750ML</t>
+          <t>DIA GALLETA RELLENITAS SURTIDA 36G</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>Emp.8</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -742,27 +742,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>000022-000085-93544</t>
+          <t>000022-000084-106748</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>000022-000006955</t>
+          <t>000022-000006974</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>100164</t>
+          <t>100013</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>DIA GALLETA RELLENITAS SURTIDA 36G</t>
+          <t>VARGAS CHEVALIER JARABE DE GRANADINA 750ML</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Emp.8</t>
+          <t>U</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>000022-000084-106747</t>
+          <t>000022-000084-106748</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -792,12 +792,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>100013</t>
+          <t>100012</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>VARGAS CHEVALIER JARABE DE GRANADINA 750ML</t>
+          <t>VARGAS CHEVALIER JARABE DE GOMA 750ML</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -822,7 +822,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>000022-000084-106747</t>
+          <t>000022-000084-106746</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -857,34 +857,34 @@
       </c>
       <c r="C16" s="9" t="inlineStr">
         <is>
+          <t xml:space="preserve">El código de barras "7758645005036" no es válido para el artículo "100018". Inserte el código de barras en la configuración del producto o actualice la línea de transacción 1,00. </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>000022-000084-106749</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> El código de barras "58909751" no es válido para el artículo "101033". Inserte el código de barras en la configuración del producto o actualice la línea de transacción 2,00.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" s="9" t="inlineStr">
+        <is>
           <t>El código de barras "58909751" no es válido para el artículo "101033". Inserte el código de barras en la configuración del producto o actualice la línea de transacción 1,00.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>000022-000084-106750</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="n">
-        <v>8</v>
-      </c>
-      <c r="C17" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El código de barras "7758645005036" no es válido para el artículo "100018". Inserte el código de barras en la configuración del producto o actualice la línea de transacción 1,00. </t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>000022-000084-106749</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> El código de barras "58909751" no es válido para el artículo "101033". Inserte el código de barras en la configuración del producto o actualice la línea de transacción 2,00.</t>
         </is>
       </c>
     </row>
